--- a/Projektplanering/Projektuppgift YSYS-OP1 2020-10-20.xlsx
+++ b/Projektplanering/Projektuppgift YSYS-OP1 2020-10-20.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -401,6 +401,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -426,7 +433,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -443,16 +450,20 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1170,8 +1181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1188,74 +1199,74 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -1397,14 +1408,14 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
+      <c r="A22" s="14">
         <v>8</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5">
+      <c r="B22" s="14"/>
+      <c r="C22" s="14">
         <v>10</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="15" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1520,88 +1531,88 @@
       <c r="A34" s="7"/>
     </row>
     <row r="35" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="13" t="s">
+      <c r="A35" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
     </row>
     <row r="36" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
     </row>
     <row r="37" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="12" t="s">
+      <c r="A37" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
     </row>
     <row r="38" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="12" t="s">
+      <c r="A38" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="12"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
     </row>
     <row r="39" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="12" t="s">
+      <c r="A39" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
     </row>
     <row r="40" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="12" t="s">
+      <c r="A40" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="12"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
     </row>
   </sheetData>
   <autoFilter ref="A12:E12">
@@ -1610,17 +1621,17 @@
     </sortState>
   </autoFilter>
   <mergeCells count="11">
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="A8:J8"/>
     <mergeCell ref="A40:J40"/>
     <mergeCell ref="A35:J35"/>
     <mergeCell ref="A36:J36"/>
     <mergeCell ref="A37:J37"/>
     <mergeCell ref="A38:J38"/>
     <mergeCell ref="A39:J39"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A7:J7"/>
-    <mergeCell ref="A8:J8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
